--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_test.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD77D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B1B0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A7A0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A420&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A570&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD54D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59AB20&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A9D0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59AF10&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B530&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD59A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B610&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B6F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD51C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A1F0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C15023960</t>
+          <t>C63361845</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
+          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
+          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>472.91</v>
+        <v>496.65</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>100.08</v>
+        <v>100.68</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B220&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C41584741</t>
+          <t>C20153625</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1cc(O)c(C[NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
+          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1cc(O)c(C[NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
+          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>511.64</v>
+        <v>524.16</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>72.97</v>
+        <v>39.08</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59AEA0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD7290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59AAB0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C29696365</t>
+          <t>C63374228</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cc(S(=O)(=O)Nc3cccc(Cl)c3)ccc2O)o1</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cc(S(=O)(=O)Nc3cccc(Cl)c3)ccc2O)o1</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>406.85</v>
+        <v>410.47</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -1536,16 +1536,16 @@
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>108.64</v>
+        <v>113.15</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDD6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A5E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C59385602</t>
+          <t>C36271854</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=O)NC(C)=C2C(=O)N/N=C/c2ccccc2F)cc1</t>
+          <t>C[C@@H]1CCC[C@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H]2NC(=O)NC(C)=C2C(=O)N/N=C/c2ccccc2F)cc1</t>
+          <t>C[C@H]1CCC[C@@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>382.4</v>
+        <v>391.48</v>
       </c>
       <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>91.81999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B760&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59A8F0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C13065548</t>
+          <t>C40476300</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
+          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c(C[NH+](Cc3ccco3)Cc3nnnn3Cc3ccc(F)cc3)cc2c1</t>
+          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>473.53</v>
+        <v>502.48</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1740,16 +1740,16 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>94.04000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B140&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C49112160</t>
+          <t>C19790688</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
+          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
+          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>489.6</v>
+        <v>522.71</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>79.78</v>
+        <v>74.52</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B34C0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C23817755</t>
+          <t>C49112160</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
+          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
+          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>438.51</v>
+        <v>489.6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>80.29000000000001</v>
+        <v>79.78</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2490&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C59817058</t>
+          <t>C02335177</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
+          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
+          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>404.58</v>
+        <v>478.67</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>78.43000000000001</v>
+        <v>64.37</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B33E0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C05554381</t>
+          <t>C38806115</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
+          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1coc([C@H]2OCO[C@H](C3CC(=O)NC(=O)C3)[C@@H]2O)c1C</t>
+          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>309.32</v>
+        <v>503.64</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2012,16 +2012,16 @@
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B29D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3DF0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C10291948</t>
+          <t>C12637817</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
+          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
+          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>514.21</v>
+        <v>500.6</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
         <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>76.66</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3C30&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C12637817</t>
+          <t>CHEMBL2152768</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
+          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CCc1ccccc1N(C(=O)c1ccc2c(c1)OCCO2)[C@H](C(=O)NC1CCCC1)c1ccc(O)cc1</t>
+          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2203,40 +2203,66 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>500.6</v>
+        <v>504.61</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CHEMBL2157438</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Inhibition of PLK1 at 1 uM</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B3760&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2274,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C39652931</t>
+          <t>CHEMBL1644620</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2282,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
+          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
+          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2271,40 +2297,66 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>531.52</v>
+        <v>387.44</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
         <v>4</v>
       </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
       <c r="M27" t="n">
-        <v>83.84</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+        <v>84.83</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>19</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CHEMBL1648812</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Inhibition of PLK1 at 10 uM after 60 mins by TR-FRET assay</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2B20&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C08800321</t>
+          <t>CHEMBL506153</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2376,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
+          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,111 +2391,69 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>476.64</v>
+        <v>330.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>63.08</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+        <v>136.78</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CHEMBL1962097</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>GSK_PKIS: PLK1 mean inhibition at 1 uM [Nanosyn]</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2C70&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C39559530</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>O=C(/C=C/c1cc(C(F)(F)F)ccc1Cl)NCC(=O)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>O=C(/C=C/c1cc(C(F)(F)F)ccc1Cl)NCC(=O)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>438.79</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>106.85</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3530&gt;</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
